--- a/datos_difraccion_electrones.xlsx
+++ b/datos_difraccion_electrones.xlsx
@@ -5,27 +5,39 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER_PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/ba_romero_uniandes_edu_co/Documents/Septimo semestre/Intermedio/Intermedio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CE47A0-AD3F-4E11-B66D-76C119264C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{38CE47A0-AD3F-4E11-B66D-76C119264C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{567E51B0-582C-4FAB-B3E3-AC388FE9A121}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{E744D398-181C-48B3-888A-BEDE30654B40}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{E744D398-181C-48B3-888A-BEDE30654B40}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>1/raiz de voltaje</t>
   </si>
@@ -1529,9 +1541,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1569,7 +1581,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1675,7 +1687,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1817,7 +1829,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1827,8 +1839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D011A32-B510-4B3F-A9C0-3D0EE60488F0}">
   <dimension ref="A3:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="114" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="114" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1928,15 +1940,15 @@
         <v>2.6179901628472922E-11</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F19" si="2">2*(0.000000000213)*SIN((1/2)*ATAN((C5*0.01)/(2*0.135)))</f>
+        <f t="shared" ref="F5:F18" si="2">2*(0.000000000213)*SIN((1/2)*ATAN((C5*0.01)/(2*0.135)))</f>
         <v>2.4335680707594915E-11</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G19" si="3">2*(0.000000000123)*SIN((1/2)*ATAN((D5*0.01)/(2*0.135)))</f>
+        <f t="shared" ref="G5:G18" si="3">2*(0.000000000123)*SIN((1/2)*ATAN((D5*0.01)/(2*0.135)))</f>
         <v>2.467580574556404E-11</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I20" si="4">C5*(0.01)</f>
+        <f t="shared" ref="I5:I19" si="4">C5*(0.01)</f>
         <v>3.1000000000000003E-2</v>
       </c>
       <c r="J5">
@@ -2484,4 +2496,254 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEE3AE7-97B4-4584-9B9F-7E2441736E6A}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D10" sqref="A10:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3.3</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <f>B2*2</f>
+        <v>6.6</v>
+      </c>
+      <c r="F2">
+        <f>C2*2</f>
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>6.6</v>
+      </c>
+      <c r="J2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2.4</v>
+      </c>
+      <c r="B3">
+        <v>2.8</v>
+      </c>
+      <c r="C3">
+        <v>5.2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:F9" si="0">B3*2</f>
+        <v>5.6</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>10.4</v>
+      </c>
+      <c r="H3">
+        <v>2.4</v>
+      </c>
+      <c r="I3">
+        <v>5.6</v>
+      </c>
+      <c r="J3">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2.8</v>
+      </c>
+      <c r="B4">
+        <v>2.6</v>
+      </c>
+      <c r="C4">
+        <v>4.7</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>5.2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>9.4</v>
+      </c>
+      <c r="H4">
+        <v>2.8</v>
+      </c>
+      <c r="I4">
+        <v>5.2</v>
+      </c>
+      <c r="J4">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3.2</v>
+      </c>
+      <c r="B5">
+        <v>2.4</v>
+      </c>
+      <c r="C5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H5">
+        <v>3.2</v>
+      </c>
+      <c r="I5">
+        <v>4.8</v>
+      </c>
+      <c r="J5">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3.6</v>
+      </c>
+      <c r="B6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C6">
+        <v>3.9</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>7.8</v>
+      </c>
+      <c r="H6">
+        <v>3.6</v>
+      </c>
+      <c r="I6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J6">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3.9</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>7.8</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B8">
+        <v>1.9</v>
+      </c>
+      <c r="C8">
+        <v>3.6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
+      <c r="H8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I8">
+        <v>3.8</v>
+      </c>
+      <c r="J8">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4.8</v>
+      </c>
+      <c r="B9">
+        <v>1.6</v>
+      </c>
+      <c r="C9">
+        <v>2.8</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>5.6</v>
+      </c>
+      <c r="H9">
+        <v>4.8</v>
+      </c>
+      <c r="I9">
+        <v>3.2</v>
+      </c>
+      <c r="J9">
+        <v>5.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>